--- a/datenRF4/SFU/i = 73,96 - Abtriebswelle 14 - Geber AV Y1/L3_73,96_14_AVY1.xlsx
+++ b/datenRF4/SFU/i = 73,96 - Abtriebswelle 14 - Geber AV Y1/L3_73,96_14_AVY1.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79280b356d20d493/Arbeit/2_Arbeitsergebnisse/2_Strukturierung_Labeling der Daten im Assistenzsystem/Reifegradstufen/Reifegradstufen Synchron ^M Fußgehäuse/i = 73^J96 - Abtriebswelle 14 - Geber AV Y1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{E3F07DDA-FCEF-4B03-8D52-D7B2F3C44CFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E11E7A41-6FB6-48EA-9B7D-48FBCB73B159}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{866BF88D-C05E-4884-BF71-5CC7F8CCDE18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -458,11 +452,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -727,9 +721,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -768,6 +759,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,7 +832,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -881,7 +884,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1075,80 +1078,80 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DA643C-8A92-4996-85A3-3168850BCFB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="B18" activeCellId="2" sqref="B10 B17 B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="9" max="9" width="41.140625" customWidth="1"/>
-    <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" customWidth="1"/>
+    <col min="1" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" customWidth="1"/>
+    <col min="9" max="9" width="41.1796875" customWidth="1"/>
+    <col min="11" max="11" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" customWidth="1"/>
+    <col min="14" max="14" width="18.54296875" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" customWidth="1"/>
+    <col min="16" max="16" width="19.54296875" customWidth="1"/>
+    <col min="17" max="17" width="23.7265625" customWidth="1"/>
+    <col min="18" max="18" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:19" ht="21">
+      <c r="A1" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="61" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="56" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="57"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="56"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="59" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="23"/>
       <c r="H2" s="3"/>
       <c r="I2" s="12"/>
@@ -1163,7 +1166,7 @@
       <c r="R2" s="13"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>71</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="72.5">
       <c r="A4" s="26"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -1257,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="29.5" thickBot="1">
       <c r="A5" s="14"/>
       <c r="G5" s="17"/>
       <c r="H5" s="14">
@@ -1281,7 +1284,7 @@
       <c r="R5" s="15"/>
       <c r="S5" s="17"/>
     </row>
-    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="29">
       <c r="A6" s="26">
         <v>1</v>
       </c>
@@ -1332,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -1365,7 +1368,7 @@
       <c r="R7" s="15"/>
       <c r="S7" s="17"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -1398,7 +1401,7 @@
       <c r="R8" s="15"/>
       <c r="S8" s="17"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -1431,11 +1434,13 @@
       <c r="R9" s="15"/>
       <c r="S9" s="17"/>
     </row>
-    <row r="10" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="29.5" thickBot="1">
       <c r="A10" s="44">
         <v>1</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="69">
+        <v>3</v>
+      </c>
       <c r="C10" s="46">
         <v>1</v>
       </c>
@@ -1464,7 +1469,7 @@
       <c r="R10" s="15"/>
       <c r="S10" s="17"/>
     </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="29">
       <c r="A11" s="14"/>
       <c r="G11" s="17"/>
       <c r="H11" s="14">
@@ -1488,7 +1493,7 @@
       <c r="R11" s="15"/>
       <c r="S11" s="17"/>
     </row>
-    <row r="12" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="29.5" thickBot="1">
       <c r="A12" s="14"/>
       <c r="G12" s="17"/>
       <c r="H12" s="14">
@@ -1512,7 +1517,7 @@
       <c r="R12" s="15"/>
       <c r="S12" s="17"/>
     </row>
-    <row r="13" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="43.5">
       <c r="A13" s="26">
         <v>1</v>
       </c>
@@ -1563,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="14">
         <v>5</v>
       </c>
@@ -1596,7 +1601,7 @@
       <c r="R14" s="15"/>
       <c r="S14" s="17"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="14">
         <v>6</v>
       </c>
@@ -1629,7 +1634,7 @@
       <c r="R15" s="15"/>
       <c r="S15" s="17"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" thickBot="1">
       <c r="A16" s="1">
         <v>7</v>
       </c>
@@ -1662,11 +1667,13 @@
       <c r="R16" s="15"/>
       <c r="S16" s="17"/>
     </row>
-    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="29">
       <c r="A17" s="14">
         <v>1</v>
       </c>
-      <c r="B17" s="41"/>
+      <c r="B17" s="67">
+        <v>3</v>
+      </c>
       <c r="C17">
         <v>1</v>
       </c>
@@ -1695,11 +1702,13 @@
       <c r="R17" s="15"/>
       <c r="S17" s="17"/>
     </row>
-    <row r="18" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="29.5" thickBot="1">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B18" s="68">
+        <v>3</v>
+      </c>
       <c r="C18" s="2">
         <v>4</v>
       </c>
@@ -1728,7 +1737,7 @@
       <c r="R18" s="15"/>
       <c r="S18" s="17"/>
     </row>
-    <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="43.5">
       <c r="A19" s="26">
         <v>1</v>
       </c>
@@ -1779,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="14">
         <v>5</v>
       </c>
@@ -1812,7 +1821,7 @@
       <c r="R20" s="15"/>
       <c r="S20" s="17"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="14">
         <v>6</v>
       </c>
@@ -1845,7 +1854,7 @@
       <c r="R21" s="15"/>
       <c r="S21" s="17"/>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" thickBot="1">
       <c r="A22" s="1">
         <v>7</v>
       </c>
@@ -1878,11 +1887,13 @@
       <c r="R22" s="15"/>
       <c r="S22" s="17"/>
     </row>
-    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="29">
       <c r="A23" s="14">
         <v>1</v>
       </c>
-      <c r="B23" s="41"/>
+      <c r="B23" s="67">
+        <v>3</v>
+      </c>
       <c r="C23">
         <v>1</v>
       </c>
@@ -1911,11 +1922,13 @@
       <c r="R23" s="15"/>
       <c r="S23" s="17"/>
     </row>
-    <row r="24" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="29.5" thickBot="1">
       <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="48"/>
+      <c r="B24" s="68">
+        <v>3</v>
+      </c>
       <c r="C24" s="2">
         <v>4</v>
       </c>
@@ -1944,7 +1957,7 @@
       <c r="R24" s="15"/>
       <c r="S24" s="17"/>
     </row>
-    <row r="25" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="44" thickBot="1">
       <c r="A25" s="14"/>
       <c r="G25" s="17"/>
       <c r="H25" s="14">
@@ -1968,7 +1981,7 @@
       <c r="R25" s="15"/>
       <c r="S25" s="17"/>
     </row>
-    <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="43.5">
       <c r="A26" s="26">
         <v>1</v>
       </c>
@@ -2021,7 +2034,7 @@
       </c>
       <c r="S26" s="17"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="14">
         <v>5</v>
       </c>
@@ -2054,7 +2067,7 @@
       <c r="R27" s="15"/>
       <c r="S27" s="17"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="14">
         <v>6</v>
       </c>
@@ -2087,7 +2100,7 @@
       <c r="R28" s="15"/>
       <c r="S28" s="17"/>
     </row>
-    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" thickBot="1">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -2120,11 +2133,13 @@
       <c r="R29" s="15"/>
       <c r="S29" s="17"/>
     </row>
-    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="29">
       <c r="A30" s="14">
         <v>1</v>
       </c>
-      <c r="B30" s="41"/>
+      <c r="B30" s="67">
+        <v>3</v>
+      </c>
       <c r="C30">
         <v>1</v>
       </c>
@@ -2153,11 +2168,13 @@
       <c r="R30" s="15"/>
       <c r="S30" s="17"/>
     </row>
-    <row r="31" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="29.5" thickBot="1">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="48"/>
+      <c r="B31" s="68">
+        <v>3</v>
+      </c>
       <c r="C31" s="2">
         <v>4</v>
       </c>
@@ -2186,7 +2203,7 @@
       <c r="R31" s="15"/>
       <c r="S31" s="17"/>
     </row>
-    <row r="32" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="29.5" thickBot="1">
       <c r="A32" s="14"/>
       <c r="G32" s="17"/>
       <c r="H32" s="14">
@@ -2210,7 +2227,7 @@
       <c r="R32" s="15"/>
       <c r="S32" s="17"/>
     </row>
-    <row r="33" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="29">
       <c r="A33" s="26">
         <v>1</v>
       </c>
@@ -2261,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="14">
         <v>5</v>
       </c>
@@ -2294,7 +2311,7 @@
       <c r="R34" s="15"/>
       <c r="S34" s="17"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="14">
         <v>6</v>
       </c>
@@ -2327,7 +2344,7 @@
       <c r="R35" s="15"/>
       <c r="S35" s="17"/>
     </row>
-    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" thickBot="1">
       <c r="A36" s="14">
         <v>7</v>
       </c>
@@ -2360,11 +2377,13 @@
       <c r="R36" s="15"/>
       <c r="S36" s="17"/>
     </row>
-    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="29">
       <c r="A37" s="26">
         <v>1</v>
       </c>
-      <c r="B37" s="39"/>
+      <c r="B37" s="66">
+        <v>3</v>
+      </c>
       <c r="C37" s="27">
         <v>1</v>
       </c>
@@ -2393,11 +2412,13 @@
       <c r="R37" s="15"/>
       <c r="S37" s="17"/>
     </row>
-    <row r="38" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="29.5" thickBot="1">
       <c r="A38" s="14">
         <v>2</v>
       </c>
-      <c r="B38" s="43"/>
+      <c r="B38" s="67">
+        <v>3</v>
+      </c>
       <c r="C38">
         <v>4</v>
       </c>
@@ -2426,7 +2447,7 @@
       <c r="R38" s="15"/>
       <c r="S38" s="17"/>
     </row>
-    <row r="39" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="29">
       <c r="A39" s="26">
         <v>1</v>
       </c>
@@ -2477,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="14">
         <v>5</v>
       </c>
@@ -2503,7 +2524,7 @@
       <c r="K40" s="17"/>
       <c r="S40" s="17"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="14">
         <v>6</v>
       </c>
@@ -2532,7 +2553,7 @@
       <c r="P41" s="22"/>
       <c r="S41" s="17"/>
     </row>
-    <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15" thickBot="1">
       <c r="A42" s="1">
         <v>7</v>
       </c>
@@ -2561,11 +2582,13 @@
       <c r="P42" s="22"/>
       <c r="S42" s="17"/>
     </row>
-    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" thickBot="1">
       <c r="A43" s="1">
         <v>1</v>
       </c>
-      <c r="B43" s="51"/>
+      <c r="B43" s="48">
+        <v>2</v>
+      </c>
       <c r="C43" s="2">
         <v>1</v>
       </c>
@@ -2590,7 +2613,7 @@
       <c r="P43" s="22"/>
       <c r="S43" s="17"/>
     </row>
-    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" thickBot="1">
       <c r="G44" s="17"/>
       <c r="H44" s="14">
         <v>7</v>
@@ -2610,7 +2633,7 @@
       <c r="Q44" s="24"/>
       <c r="S44" s="17"/>
     </row>
-    <row r="45" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="43.5">
       <c r="A45" s="26">
         <v>1</v>
       </c>
@@ -2661,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" s="14">
         <v>5</v>
       </c>
@@ -2687,7 +2710,7 @@
       <c r="K46" s="17"/>
       <c r="S46" s="17"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47" s="14">
         <v>6</v>
       </c>
@@ -2716,7 +2739,7 @@
       <c r="P47" s="22"/>
       <c r="S47" s="17"/>
     </row>
-    <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15" thickBot="1">
       <c r="A48" s="1">
         <v>7</v>
       </c>
@@ -2745,11 +2768,13 @@
       <c r="P48" s="22"/>
       <c r="S48" s="17"/>
     </row>
-    <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="15" thickBot="1">
       <c r="A49" s="1">
         <v>1</v>
       </c>
-      <c r="B49" s="51"/>
+      <c r="B49" s="48">
+        <v>2</v>
+      </c>
       <c r="C49" s="2">
         <v>1</v>
       </c>
@@ -2774,7 +2799,7 @@
       <c r="P49" s="22"/>
       <c r="S49" s="17"/>
     </row>
-    <row r="50" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="43.5">
       <c r="G50" s="17"/>
       <c r="H50" s="14">
         <v>9</v>
@@ -2793,7 +2818,7 @@
       <c r="P50" s="22"/>
       <c r="S50" s="17"/>
     </row>
-    <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="43.5">
       <c r="G51" s="17"/>
       <c r="H51" s="14">
         <v>9</v>
@@ -2812,7 +2837,7 @@
       <c r="P51" s="22"/>
       <c r="S51" s="17"/>
     </row>
-    <row r="52" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="43.5">
       <c r="G52" s="17"/>
       <c r="H52" s="14">
         <v>10</v>
@@ -2828,7 +2853,7 @@
       </c>
       <c r="S52" s="17"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19">
       <c r="G53" s="17"/>
       <c r="H53" s="14"/>
       <c r="I53" s="15"/>
@@ -2836,7 +2861,7 @@
       <c r="K53" s="25"/>
       <c r="S53" s="17"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19">
       <c r="G54" s="17"/>
       <c r="H54" s="14"/>
       <c r="I54" s="15"/>
@@ -2844,7 +2869,7 @@
       <c r="K54" s="25"/>
       <c r="S54" s="17"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19">
       <c r="G55" s="17"/>
       <c r="H55" s="14"/>
       <c r="I55" s="15"/>
@@ -2852,7 +2877,7 @@
       <c r="K55" s="25"/>
       <c r="S55" s="17"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19">
       <c r="G56" s="17"/>
       <c r="H56" s="14"/>
       <c r="I56" s="15"/>
@@ -2860,7 +2885,7 @@
       <c r="K56" s="25"/>
       <c r="S56" s="17"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19">
       <c r="G57" s="17"/>
       <c r="H57" s="14"/>
       <c r="I57" s="15"/>
@@ -2868,7 +2893,7 @@
       <c r="K57" s="25"/>
       <c r="S57" s="17"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19">
       <c r="G58" s="17"/>
       <c r="H58" s="14"/>
       <c r="I58" s="15"/>
@@ -2876,7 +2901,7 @@
       <c r="K58" s="25"/>
       <c r="S58" s="17"/>
     </row>
-    <row r="59" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="43.5">
       <c r="G59" s="17"/>
       <c r="H59" s="14">
         <v>10</v>
@@ -2892,7 +2917,7 @@
       </c>
       <c r="S59" s="17"/>
     </row>
-    <row r="60" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="58">
       <c r="G60" s="17"/>
       <c r="H60" s="14">
         <v>11</v>
@@ -2908,7 +2933,7 @@
       </c>
       <c r="S60" s="17"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19">
       <c r="G61" s="17"/>
       <c r="H61" s="14"/>
       <c r="I61" s="15"/>
@@ -2916,7 +2941,7 @@
       <c r="K61" s="25"/>
       <c r="S61" s="17"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19">
       <c r="G62" s="17"/>
       <c r="H62" s="14"/>
       <c r="I62" s="15"/>
@@ -2924,7 +2949,7 @@
       <c r="K62" s="25"/>
       <c r="S62" s="17"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19">
       <c r="G63" s="17"/>
       <c r="H63" s="14"/>
       <c r="I63" s="15"/>
@@ -2932,7 +2957,7 @@
       <c r="K63" s="25"/>
       <c r="S63" s="17"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19">
       <c r="G64" s="17"/>
       <c r="H64" s="14"/>
       <c r="I64" s="15"/>
@@ -2940,7 +2965,7 @@
       <c r="K64" s="25"/>
       <c r="S64" s="17"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19">
       <c r="G65" s="17"/>
       <c r="H65" s="14"/>
       <c r="I65" s="15"/>
@@ -2948,7 +2973,7 @@
       <c r="K65" s="25"/>
       <c r="S65" s="17"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19">
       <c r="G66" s="17"/>
       <c r="H66" s="14"/>
       <c r="I66" s="15"/>
@@ -2956,7 +2981,7 @@
       <c r="K66" s="25"/>
       <c r="S66" s="17"/>
     </row>
-    <row r="67" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="43.5">
       <c r="G67" s="17"/>
       <c r="H67" s="14">
         <v>11</v>
@@ -2972,7 +2997,7 @@
       </c>
       <c r="S67" s="17"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19">
       <c r="G68" s="17"/>
       <c r="H68" s="14">
         <v>12</v>
@@ -2988,7 +3013,7 @@
       </c>
       <c r="S68" s="17"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19">
       <c r="G69" s="17"/>
       <c r="H69" s="14"/>
       <c r="I69" s="15"/>
@@ -2996,7 +3021,7 @@
       <c r="K69" s="25"/>
       <c r="S69" s="17"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19">
       <c r="G70" s="17"/>
       <c r="H70" s="14"/>
       <c r="I70" s="15"/>
@@ -3004,7 +3029,7 @@
       <c r="K70" s="25"/>
       <c r="S70" s="17"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19">
       <c r="G71" s="17"/>
       <c r="H71" s="14"/>
       <c r="I71" s="15"/>
@@ -3012,7 +3037,7 @@
       <c r="K71" s="25"/>
       <c r="S71" s="17"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19">
       <c r="G72" s="17"/>
       <c r="H72" s="14"/>
       <c r="I72" s="15"/>
@@ -3020,7 +3045,7 @@
       <c r="K72" s="25"/>
       <c r="S72" s="17"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19">
       <c r="G73" s="17"/>
       <c r="H73" s="14"/>
       <c r="I73" s="15"/>
@@ -3028,7 +3053,7 @@
       <c r="K73" s="25"/>
       <c r="S73" s="17"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19">
       <c r="G74" s="17"/>
       <c r="H74" s="14"/>
       <c r="I74" s="15"/>
@@ -3036,7 +3061,7 @@
       <c r="K74" s="25"/>
       <c r="S74" s="17"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19">
       <c r="A75" s="14"/>
       <c r="G75" s="17"/>
       <c r="H75" s="14">
@@ -3053,7 +3078,7 @@
       </c>
       <c r="S75" s="17"/>
     </row>
-    <row r="76" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="29">
       <c r="A76" s="14"/>
       <c r="G76" s="17"/>
       <c r="H76" s="14">
@@ -3074,7 +3099,7 @@
       <c r="R76" s="15"/>
       <c r="S76" s="17"/>
     </row>
-    <row r="77" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="29.5" thickBot="1">
       <c r="A77" s="14"/>
       <c r="G77" s="17"/>
       <c r="H77" s="14">
@@ -3095,7 +3120,7 @@
       <c r="R77" s="15"/>
       <c r="S77" s="17"/>
     </row>
-    <row r="78" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="29.5" thickBot="1">
       <c r="A78" s="44">
         <v>1</v>
       </c>
@@ -3111,7 +3136,7 @@
       <c r="E78" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="F78" s="52" t="s">
+      <c r="F78" s="51" t="s">
         <v>100</v>
       </c>
       <c r="G78" s="36"/>
@@ -3143,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15" thickBot="1">
       <c r="A79" s="14">
         <v>4</v>
       </c>
@@ -3159,7 +3184,7 @@
       <c r="E79" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F79" s="53" t="s">
+      <c r="F79" s="52" t="s">
         <v>86</v>
       </c>
       <c r="G79" s="37">
@@ -3175,7 +3200,7 @@
       <c r="R79" s="15"/>
       <c r="S79" s="17"/>
     </row>
-    <row r="80" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="15" thickBot="1">
       <c r="A80" s="44">
         <v>5</v>
       </c>
@@ -3191,7 +3216,7 @@
       <c r="E80" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="F80" s="52" t="s">
+      <c r="F80" s="51" t="s">
         <v>130</v>
       </c>
       <c r="G80" s="36"/>
@@ -3205,7 +3230,7 @@
       <c r="R80" s="15"/>
       <c r="S80" s="17"/>
     </row>
-    <row r="81" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="29">
       <c r="A81" s="14"/>
       <c r="G81" s="17"/>
       <c r="H81" s="14">
@@ -3226,7 +3251,7 @@
       <c r="R81" s="15"/>
       <c r="S81" s="17"/>
     </row>
-    <row r="82" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="29">
       <c r="A82" s="14"/>
       <c r="G82" s="17"/>
       <c r="H82" s="14">
@@ -3247,7 +3272,7 @@
       <c r="R82" s="15"/>
       <c r="S82" s="17"/>
     </row>
-    <row r="83" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="29">
       <c r="A83" s="14"/>
       <c r="G83" s="17"/>
       <c r="H83" s="14">
@@ -3268,7 +3293,7 @@
       <c r="R83" s="15"/>
       <c r="S83" s="17"/>
     </row>
-    <row r="84" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="29">
       <c r="A84" s="14"/>
       <c r="G84" s="17"/>
       <c r="H84" s="14">
@@ -3289,7 +3314,7 @@
       <c r="R84" s="15"/>
       <c r="S84" s="17"/>
     </row>
-    <row r="85" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="29">
       <c r="A85" s="14"/>
       <c r="G85" s="17"/>
       <c r="H85" s="14">
@@ -3310,7 +3335,7 @@
       <c r="R85" s="15"/>
       <c r="S85" s="17"/>
     </row>
-    <row r="86" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="29">
       <c r="A86" s="14"/>
       <c r="G86" s="17"/>
       <c r="H86" s="14">
@@ -3331,7 +3356,7 @@
       <c r="R86" s="15"/>
       <c r="S86" s="17"/>
     </row>
-    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="29">
       <c r="A87" s="14"/>
       <c r="G87" s="17"/>
       <c r="H87" s="14">
@@ -3352,7 +3377,7 @@
       <c r="R87" s="15"/>
       <c r="S87" s="17"/>
     </row>
-    <row r="88" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="29">
       <c r="A88" s="14"/>
       <c r="G88" s="17"/>
       <c r="H88" s="14">
@@ -3373,7 +3398,7 @@
       <c r="R88" s="15"/>
       <c r="S88" s="17"/>
     </row>
-    <row r="89" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="29">
       <c r="A89" s="14"/>
       <c r="G89" s="17"/>
       <c r="H89" s="14">
@@ -3394,7 +3419,7 @@
       <c r="R89" s="15"/>
       <c r="S89" s="17"/>
     </row>
-    <row r="90" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="43.5">
       <c r="A90" s="14"/>
       <c r="G90" s="17"/>
       <c r="H90" s="14">
@@ -3415,7 +3440,7 @@
       <c r="R90" s="15"/>
       <c r="S90" s="17"/>
     </row>
-    <row r="91" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="44" thickBot="1">
       <c r="A91" s="14"/>
       <c r="G91" s="17"/>
       <c r="H91" s="14">
@@ -3436,7 +3461,7 @@
       <c r="R91" s="15"/>
       <c r="S91" s="17"/>
     </row>
-    <row r="92" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="44" thickBot="1">
       <c r="A92" s="44">
         <v>1</v>
       </c>
@@ -3452,7 +3477,7 @@
       <c r="E92" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="F92" s="52" t="s">
+      <c r="F92" s="51" t="s">
         <v>100</v>
       </c>
       <c r="G92" s="36"/>
@@ -3484,11 +3509,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="15" thickBot="1">
       <c r="A93" s="44">
         <v>4</v>
       </c>
-      <c r="B93" s="54">
+      <c r="B93" s="53">
         <v>2</v>
       </c>
       <c r="C93" s="46">
@@ -3500,7 +3525,7 @@
       <c r="E93" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="F93" s="55" t="s">
+      <c r="F93" s="54" t="s">
         <v>86</v>
       </c>
       <c r="G93" s="38">
@@ -3516,7 +3541,7 @@
       <c r="R93" s="15"/>
       <c r="S93" s="17"/>
     </row>
-    <row r="94" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="15" thickBot="1">
       <c r="A94" s="44">
         <v>5</v>
       </c>
@@ -3532,7 +3557,7 @@
       <c r="E94" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="F94" s="52" t="s">
+      <c r="F94" s="51" t="s">
         <v>130</v>
       </c>
       <c r="G94" s="36"/>
@@ -3546,7 +3571,7 @@
       <c r="R94" s="15"/>
       <c r="S94" s="17"/>
     </row>
-    <row r="95" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="43.5">
       <c r="A95" s="14"/>
       <c r="G95" s="17"/>
       <c r="H95" s="14">
@@ -3567,7 +3592,7 @@
       <c r="R95" s="15"/>
       <c r="S95" s="17"/>
     </row>
-    <row r="96" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="43.5">
       <c r="A96" s="14"/>
       <c r="G96" s="17"/>
       <c r="H96" s="14">
@@ -3588,7 +3613,7 @@
       <c r="R96" s="15"/>
       <c r="S96" s="17"/>
     </row>
-    <row r="97" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="43.5">
       <c r="A97" s="14"/>
       <c r="G97" s="17"/>
       <c r="H97" s="14">
@@ -3609,7 +3634,7 @@
       <c r="R97" s="15"/>
       <c r="S97" s="17"/>
     </row>
-    <row r="98" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="43.5">
       <c r="A98" s="14"/>
       <c r="G98" s="17"/>
       <c r="H98" s="14">
@@ -3630,7 +3655,7 @@
       <c r="R98" s="15"/>
       <c r="S98" s="17"/>
     </row>
-    <row r="99" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="43.5">
       <c r="A99" s="14"/>
       <c r="G99" s="17"/>
       <c r="H99" s="14">
@@ -3651,7 +3676,7 @@
       <c r="R99" s="15"/>
       <c r="S99" s="17"/>
     </row>
-    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="43.5">
       <c r="A100" s="14"/>
       <c r="G100" s="17"/>
       <c r="H100" s="14">
@@ -3672,7 +3697,7 @@
       <c r="R100" s="15"/>
       <c r="S100" s="17"/>
     </row>
-    <row r="101" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="43.5">
       <c r="A101" s="14"/>
       <c r="G101" s="17"/>
       <c r="H101" s="14">
@@ -3693,7 +3718,7 @@
       <c r="R101" s="15"/>
       <c r="S101" s="17"/>
     </row>
-    <row r="102" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="43.5">
       <c r="A102" s="14"/>
       <c r="G102" s="17"/>
       <c r="H102" s="14">
@@ -3714,7 +3739,7 @@
       <c r="R102" s="15"/>
       <c r="S102" s="17"/>
     </row>
-    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="43.5">
       <c r="A103" s="14"/>
       <c r="G103" s="17"/>
       <c r="H103" s="14">
@@ -3735,7 +3760,7 @@
       <c r="R103" s="15"/>
       <c r="S103" s="17"/>
     </row>
-    <row r="104" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" ht="44" thickBot="1">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
